--- a/output/StructureDefinition-TICTFPatient.xlsx
+++ b/output/StructureDefinition-TICTFPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lac-pat-1:A patient can only have a single official identifier {Patient.identifier.where(use='official').count() &gt;= 1}lac-pat-2:The identifier system must be a URN OID {Patient.identifier.where(use='official')[0].system.startsWith('urn:oid.2.16.')}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -472,6 +472,9 @@
     <t>Patient.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -485,6 +488,16 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Patient identifier</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -495,6 +508,289 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>The international identifier for the patient. The passport number is used.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>fixed to official</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Passport number</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="PPN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>URN OID for the country (ISO-3306 numeric)</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>The national identifier for the patient. Any type different from PPN can be used.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.type</t>
+  </si>
+  <si>
+    <t>Any type except PPN (Passport number)</t>
+  </si>
+  <si>
+    <t>http://lacpass.racsel.org/ValueSet/national-identifier-types</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -525,9 +821,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -602,9 +895,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -707,10 +997,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -718,9 +1004,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -820,26 +1103,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -943,10 +1207,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -967,10 +1227,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1486,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1495,17 +1751,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1514,27 +1770,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.75390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.5390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.19921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2726,7 +2982,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -2741,17 +2997,17 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2788,16 +3044,16 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>145</v>
@@ -2815,16 +3071,16 @@
         <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -2832,52 +3088,50 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2921,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
@@ -2936,16 +3190,16 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -2953,10 +3207,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2967,7 +3221,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -2976,23 +3230,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3040,31 +3290,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3072,14 +3322,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3095,23 +3345,21 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3147,16 +3395,16 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>173</v>
@@ -3171,19 +3419,19 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3191,10 +3439,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3208,10 +3456,10 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
@@ -3220,23 +3468,23 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>80</v>
@@ -3254,13 +3502,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3278,7 +3526,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3293,16 +3541,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3310,10 +3558,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3321,7 +3569,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3336,26 +3584,26 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>80</v>
@@ -3373,13 +3621,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3397,7 +3645,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3412,27 +3660,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3440,7 +3688,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3449,25 +3697,25 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3480,7 +3728,7 @@
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -3516,7 +3764,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3531,16 +3779,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3548,10 +3796,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3562,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3574,20 +3822,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3599,7 +3845,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -3635,13 +3881,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3650,16 +3896,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3667,10 +3913,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3690,21 +3936,19 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3728,13 +3972,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3752,7 +3996,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3767,16 +4011,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -3784,10 +4028,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3807,23 +4051,21 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3871,7 +4113,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3886,16 +4128,16 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -3903,45 +4145,45 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3990,7 +4232,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4005,16 +4247,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4022,10 +4264,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4036,7 +4278,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4048,20 +4290,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4109,25 +4347,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4141,21 +4379,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4167,15 +4405,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4212,34 +4452,34 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4256,44 +4496,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4317,13 +4559,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4341,22 +4583,22 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4365,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4373,45 +4615,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4436,13 +4678,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4460,22 +4700,22 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4484,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4492,10 +4732,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4503,10 +4743,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4515,20 +4755,22 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4541,7 +4783,7 @@
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4553,13 +4795,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4577,13 +4819,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4592,16 +4834,16 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4609,10 +4851,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4632,21 +4874,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4658,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -4694,7 +4936,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4709,16 +4951,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4726,10 +4968,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4740,7 +4982,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4749,23 +4991,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4813,13 +5051,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -4828,16 +5066,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4845,10 +5083,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4868,21 +5106,21 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4930,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4945,16 +5183,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4962,10 +5200,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4982,28 +5220,32 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5023,13 +5265,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5047,7 +5289,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5062,16 +5304,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5079,10 +5321,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5093,7 +5335,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5102,20 +5344,22 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5164,31 +5408,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5196,10 +5440,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5210,7 +5454,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5219,19 +5463,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5279,13 +5527,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5294,16 +5542,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5311,10 +5559,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5325,7 +5573,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5334,22 +5582,22 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5374,13 +5622,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5398,13 +5646,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5413,16 +5661,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5430,10 +5678,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5453,19 +5701,23 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5513,7 +5765,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5525,64 +5777,66 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5630,31 +5884,31 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5662,14 +5916,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5682,25 +5936,25 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5749,7 +6003,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5761,19 +6015,19 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -5781,10 +6035,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5792,7 +6046,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -5807,19 +6061,17 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5844,13 +6096,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5868,10 +6120,10 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
@@ -5883,16 +6135,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -5900,10 +6152,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5926,19 +6178,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5987,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6002,16 +6254,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6019,14 +6271,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6045,18 +6297,20 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6104,7 +6358,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6119,16 +6373,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6136,10 +6390,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6150,7 +6404,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6159,22 +6413,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6223,25 +6477,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6255,10 +6509,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6269,32 +6523,28 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6342,25 +6592,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6374,21 +6624,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6400,15 +6650,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6457,22 +6709,22 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6489,14 +6741,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6509,24 +6761,26 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6574,7 +6828,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6843,7 @@
         <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6606,14 +6860,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6626,25 +6880,23 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6669,13 +6921,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6693,7 +6945,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6705,19 +6957,19 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -6725,10 +6977,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6736,7 +6988,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -6748,21 +7000,21 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -6810,10 +7062,10 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>88</v>
@@ -6825,16 +7077,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -6842,10 +7094,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6853,10 +7105,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6865,19 +7117,23 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -6901,37 +7157,37 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -6940,23 +7196,2135 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6966,7 +9334,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-TICTFPatient.xlsx
+++ b/output/StructureDefinition-TICTFPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lac-pat-1:A patient can only have a single official identifier {Patient.identifier.where(use='official').count() &gt;= 1}lac-pat-2:The identifier system must be a URN OID {Patient.identifier.where(use='official')[0].system.startsWith('urn:oid.2.16.')}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -472,6 +472,9 @@
     <t>Patient.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -485,6 +488,16 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Patient identifier</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -495,6 +508,289 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>The international identifier for the patient. The passport number is used.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>fixed to official</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Passport number</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="PPN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>URN OID for the country (ISO-3306 numeric)</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier:international.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>The national identifier for the patient. Any type different from PPN can be used.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.type</t>
+  </si>
+  <si>
+    <t>Any type except PPN (Passport number)</t>
+  </si>
+  <si>
+    <t>http://lacpass.racsel.org/ValueSet/national-identifier-types</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:national.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -525,9 +821,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -602,9 +895,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -707,10 +997,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -718,9 +1004,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -820,26 +1103,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -943,10 +1207,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -967,10 +1227,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1486,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1495,17 +1751,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="45.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1514,27 +1770,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.75390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.83203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="140.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.43359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.4765625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2726,7 +2982,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -2741,17 +2997,17 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2788,16 +3044,16 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>145</v>
@@ -2815,16 +3071,16 @@
         <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -2832,52 +3088,50 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2921,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
@@ -2936,16 +3190,16 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -2953,10 +3207,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2967,7 +3221,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -2976,23 +3230,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3040,31 +3290,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3072,14 +3322,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3095,23 +3345,21 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3147,16 +3395,16 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>173</v>
@@ -3171,19 +3419,19 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3191,10 +3439,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3208,10 +3456,10 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
@@ -3220,23 +3468,23 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>80</v>
@@ -3254,13 +3502,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3278,7 +3526,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3293,16 +3541,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3310,10 +3558,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3321,7 +3569,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3336,26 +3584,26 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>80</v>
@@ -3373,13 +3621,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3397,7 +3645,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3412,27 +3660,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3440,7 +3688,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3449,25 +3697,25 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3480,7 +3728,7 @@
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -3516,7 +3764,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3531,16 +3779,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3548,10 +3796,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3562,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3574,20 +3822,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3599,7 +3845,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -3635,13 +3881,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3650,16 +3896,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3667,10 +3913,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3690,21 +3936,19 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3728,13 +3972,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3752,7 +3996,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3767,16 +4011,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -3784,10 +4028,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3807,23 +4051,21 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3871,7 +4113,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3886,16 +4128,16 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -3903,45 +4145,45 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3990,7 +4232,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4005,16 +4247,16 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4022,10 +4264,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4036,7 +4278,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4048,20 +4290,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4109,25 +4347,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4141,21 +4379,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4167,15 +4405,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4212,34 +4452,34 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4256,44 +4496,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4317,13 +4559,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4341,22 +4583,22 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4365,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4373,45 +4615,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4436,13 +4678,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4460,22 +4700,22 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4484,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4492,10 +4732,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4503,10 +4743,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4515,20 +4755,22 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4541,7 +4783,7 @@
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4553,13 +4795,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4577,13 +4819,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4592,16 +4834,16 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4609,10 +4851,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4632,21 +4874,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4658,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -4694,7 +4936,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4709,16 +4951,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4726,10 +4968,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4740,7 +4982,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4749,23 +4991,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4813,13 +5051,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -4828,16 +5066,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4845,10 +5083,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4868,21 +5106,21 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4930,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4945,16 +5183,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4962,10 +5200,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4982,28 +5220,32 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5023,13 +5265,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5047,7 +5289,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5062,16 +5304,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5079,10 +5321,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5093,7 +5335,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5102,20 +5344,22 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5164,31 +5408,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5196,10 +5440,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5210,7 +5454,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5219,19 +5463,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5279,13 +5527,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5294,16 +5542,16 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5311,10 +5559,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5325,7 +5573,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5334,22 +5582,22 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5374,13 +5622,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5398,13 +5646,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5413,16 +5661,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5430,10 +5678,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5453,19 +5701,23 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5513,7 +5765,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5525,64 +5777,66 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5630,31 +5884,31 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5662,14 +5916,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5682,25 +5936,25 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5749,7 +6003,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5761,19 +6015,19 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -5781,10 +6035,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5792,7 +6046,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -5807,19 +6061,17 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5844,13 +6096,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5868,10 +6120,10 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
@@ -5883,16 +6135,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -5900,10 +6152,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5926,19 +6178,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5987,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6002,16 +6254,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6019,14 +6271,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6045,18 +6297,20 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6104,7 +6358,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6119,16 +6373,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6136,10 +6390,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6150,7 +6404,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6159,22 +6413,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6223,25 +6477,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6255,10 +6509,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6269,32 +6523,28 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6342,25 +6592,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6374,21 +6624,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6400,15 +6650,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6457,22 +6709,22 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6489,14 +6741,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6509,24 +6761,26 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6574,7 +6828,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6843,7 @@
         <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6606,14 +6860,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6626,25 +6880,23 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6669,13 +6921,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6693,7 +6945,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6705,19 +6957,19 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -6725,10 +6977,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6736,7 +6988,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -6748,21 +7000,21 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -6810,10 +7062,10 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>88</v>
@@ -6825,16 +7077,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -6842,10 +7094,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6853,10 +7105,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6865,19 +7117,23 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -6901,37 +7157,37 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -6940,23 +7196,2135 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6966,7 +9334,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
